--- a/facerecog/Datasets/listPeople.xlsx
+++ b/facerecog/Datasets/listPeople.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,55 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Ahmadi 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ahmadi 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ahmadi 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ahmadi 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ah 5</t>
+          <t>udin</t>
         </is>
       </c>
     </row>
